--- a/pred_ohlcv/54/2019-10-31 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-31 WTC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E2" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F2" t="n">
-        <v>160</v>
+        <v>48.5367</v>
       </c>
       <c r="G2" t="n">
-        <v>874.7166666666667</v>
+        <v>875.6</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G3" t="n">
-        <v>874.1333333333333</v>
+        <v>874.7166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,25 +471,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C4" t="n">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="D4" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E4" t="n">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F4" t="n">
-        <v>85.1799</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>873.5</v>
+        <v>874.1333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C5" t="n">
         <v>855</v>
       </c>
       <c r="D5" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E5" t="n">
         <v>855</v>
       </c>
       <c r="F5" t="n">
-        <v>368.9</v>
+        <v>85.1799</v>
       </c>
       <c r="G5" t="n">
-        <v>872.8833333333333</v>
+        <v>873.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="D6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E6" t="n">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="F6" t="n">
-        <v>944.8141000000001</v>
+        <v>368.9</v>
       </c>
       <c r="G6" t="n">
-        <v>872.15</v>
+        <v>872.8833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E7" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F7" t="n">
-        <v>897.2236</v>
+        <v>944.8141000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>871.3666666666667</v>
+        <v>872.15</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E8" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F8" t="n">
-        <v>325.3</v>
+        <v>897.2236</v>
       </c>
       <c r="G8" t="n">
-        <v>870.8166666666667</v>
+        <v>871.3666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E9" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F9" t="n">
-        <v>83.1234</v>
+        <v>325.3</v>
       </c>
       <c r="G9" t="n">
-        <v>870.2666666666667</v>
+        <v>870.8166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E10" t="n">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F10" t="n">
-        <v>34.4986</v>
+        <v>83.1234</v>
       </c>
       <c r="G10" t="n">
-        <v>869.75</v>
+        <v>870.2666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E11" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F11" t="n">
-        <v>44.56</v>
+        <v>34.4986</v>
       </c>
       <c r="G11" t="n">
-        <v>869.0833333333334</v>
+        <v>869.75</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E12" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F12" t="n">
-        <v>460.7957</v>
+        <v>44.56</v>
       </c>
       <c r="G12" t="n">
-        <v>868.4666666666667</v>
+        <v>869.0833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E13" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="F13" t="n">
-        <v>112.5162</v>
+        <v>460.7957</v>
       </c>
       <c r="G13" t="n">
-        <v>867.8666666666667</v>
+        <v>868.4666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>846</v>
       </c>
       <c r="C14" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D14" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E14" t="n">
         <v>846</v>
       </c>
       <c r="F14" t="n">
-        <v>398.35</v>
+        <v>112.5162</v>
       </c>
       <c r="G14" t="n">
-        <v>867.3166666666667</v>
+        <v>867.8666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>846</v>
       </c>
       <c r="C15" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D15" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E15" t="n">
         <v>846</v>
       </c>
       <c r="F15" t="n">
-        <v>551.4419</v>
+        <v>398.35</v>
       </c>
       <c r="G15" t="n">
-        <v>866.75</v>
+        <v>867.3166666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C16" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D16" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E16" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F16" t="n">
-        <v>5268.4242</v>
+        <v>551.4419</v>
       </c>
       <c r="G16" t="n">
-        <v>866.1</v>
+        <v>866.75</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C17" t="n">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D17" t="n">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E17" t="n">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F17" t="n">
-        <v>39.1584</v>
+        <v>5268.4242</v>
       </c>
       <c r="G17" t="n">
-        <v>865.55</v>
+        <v>866.1</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>857</v>
       </c>
       <c r="F18" t="n">
-        <v>264.2124</v>
+        <v>39.1584</v>
       </c>
       <c r="G18" t="n">
-        <v>865.1</v>
+        <v>865.55</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>857</v>
       </c>
       <c r="C19" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D19" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E19" t="n">
         <v>857</v>
       </c>
       <c r="F19" t="n">
-        <v>1025</v>
+        <v>264.2124</v>
       </c>
       <c r="G19" t="n">
-        <v>864.85</v>
+        <v>865.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C20" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D20" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E20" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F20" t="n">
-        <v>270</v>
+        <v>1025</v>
       </c>
       <c r="G20" t="n">
-        <v>864.5</v>
+        <v>864.85</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>861</v>
       </c>
       <c r="C21" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D21" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E21" t="n">
         <v>861</v>
       </c>
       <c r="F21" t="n">
-        <v>590</v>
+        <v>270</v>
       </c>
       <c r="G21" t="n">
-        <v>864.2</v>
+        <v>864.5</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C22" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D22" t="n">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E22" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F22" t="n">
-        <v>36.34</v>
+        <v>590</v>
       </c>
       <c r="G22" t="n">
-        <v>863.9166666666666</v>
+        <v>864.2</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>859</v>
       </c>
       <c r="F23" t="n">
-        <v>245.1399</v>
+        <v>36.34</v>
       </c>
       <c r="G23" t="n">
-        <v>863.5666666666667</v>
+        <v>863.9166666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>859</v>
       </c>
       <c r="C24" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D24" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E24" t="n">
         <v>859</v>
       </c>
       <c r="F24" t="n">
-        <v>255.78</v>
+        <v>245.1399</v>
       </c>
       <c r="G24" t="n">
-        <v>863.2333333333333</v>
+        <v>863.5666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C25" t="n">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="D25" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E25" t="n">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="F25" t="n">
-        <v>1980.7132</v>
+        <v>255.78</v>
       </c>
       <c r="G25" t="n">
-        <v>862.7666666666667</v>
+        <v>863.2333333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C26" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="D26" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E26" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="F26" t="n">
-        <v>46.1548</v>
+        <v>1980.7132</v>
       </c>
       <c r="G26" t="n">
-        <v>862.5</v>
+        <v>862.7666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C27" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="D27" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E27" t="n">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="F27" t="n">
-        <v>4912.879</v>
+        <v>46.1548</v>
       </c>
       <c r="G27" t="n">
-        <v>861.9</v>
+        <v>862.5</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C28" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D28" t="n">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E28" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F28" t="n">
-        <v>338.1522</v>
+        <v>4912.879</v>
       </c>
       <c r="G28" t="n">
-        <v>861.25</v>
+        <v>861.9</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C29" t="n">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D29" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E29" t="n">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="F29" t="n">
-        <v>711.4405</v>
+        <v>338.1522</v>
       </c>
       <c r="G29" t="n">
-        <v>860.5166666666667</v>
+        <v>861.25</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C30" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D30" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E30" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F30" t="n">
-        <v>17.266</v>
+        <v>711.4405</v>
       </c>
       <c r="G30" t="n">
-        <v>859.7</v>
+        <v>860.5166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>852</v>
       </c>
       <c r="F31" t="n">
-        <v>17.1529</v>
+        <v>17.266</v>
       </c>
       <c r="G31" t="n">
-        <v>858.95</v>
+        <v>859.7</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>852</v>
       </c>
       <c r="F32" t="n">
-        <v>323.2738</v>
+        <v>17.1529</v>
       </c>
       <c r="G32" t="n">
-        <v>858.2166666666667</v>
+        <v>858.95</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>852</v>
       </c>
       <c r="F33" t="n">
-        <v>47.5</v>
+        <v>323.2738</v>
       </c>
       <c r="G33" t="n">
-        <v>857.5</v>
+        <v>858.2166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E34" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F34" t="n">
-        <v>70.6281</v>
+        <v>47.5</v>
       </c>
       <c r="G34" t="n">
-        <v>856.8</v>
+        <v>857.5</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E35" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F35" t="n">
-        <v>700</v>
+        <v>70.6281</v>
       </c>
       <c r="G35" t="n">
-        <v>856.05</v>
+        <v>856.8</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C36" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D36" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E36" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="F36" t="n">
-        <v>1258.675</v>
+        <v>700</v>
       </c>
       <c r="G36" t="n">
-        <v>855.1166666666667</v>
+        <v>856.05</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C37" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D37" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E37" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F37" t="n">
-        <v>109.5316</v>
+        <v>1258.675</v>
       </c>
       <c r="G37" t="n">
-        <v>854.25</v>
+        <v>855.1166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E38" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F38" t="n">
-        <v>312.7023</v>
+        <v>109.5316</v>
       </c>
       <c r="G38" t="n">
-        <v>854.1166666666667</v>
+        <v>854.25</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E39" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F39" t="n">
-        <v>297.4112</v>
+        <v>312.7023</v>
       </c>
       <c r="G39" t="n">
-        <v>853.8833333333333</v>
+        <v>854.1166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C40" t="n">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D40" t="n">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E40" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F40" t="n">
-        <v>1190</v>
+        <v>297.4112</v>
       </c>
       <c r="G40" t="n">
-        <v>853.8666666666667</v>
+        <v>853.8833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C41" t="n">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D41" t="n">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E41" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F41" t="n">
-        <v>246.2</v>
+        <v>1190</v>
       </c>
       <c r="G41" t="n">
-        <v>853.55</v>
+        <v>853.8666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E42" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F42" t="n">
-        <v>270</v>
+        <v>246.2</v>
       </c>
       <c r="G42" t="n">
-        <v>853.6</v>
+        <v>853.55</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C43" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D43" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E43" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F43" t="n">
-        <v>675.0039</v>
+        <v>270</v>
       </c>
       <c r="G43" t="n">
-        <v>853.85</v>
+        <v>853.6</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C44" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D44" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E44" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F44" t="n">
-        <v>499.9999</v>
+        <v>675.0039</v>
       </c>
       <c r="G44" t="n">
-        <v>853.8166666666667</v>
+        <v>853.85</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E45" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F45" t="n">
-        <v>75.2512</v>
+        <v>499.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>853.6666666666666</v>
+        <v>853.8166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E46" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F46" t="n">
-        <v>112.804</v>
+        <v>75.2512</v>
       </c>
       <c r="G46" t="n">
-        <v>853.5</v>
+        <v>853.6666666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C47" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D47" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E47" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F47" t="n">
-        <v>467.0327</v>
+        <v>112.804</v>
       </c>
       <c r="G47" t="n">
-        <v>853.4833333333333</v>
+        <v>853.5</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C48" t="n">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D48" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E48" t="n">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="F48" t="n">
-        <v>526.3371</v>
+        <v>467.0327</v>
       </c>
       <c r="G48" t="n">
-        <v>853.6333333333333</v>
+        <v>853.4833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C49" t="n">
         <v>858</v>
       </c>
       <c r="D49" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E49" t="n">
         <v>858</v>
       </c>
       <c r="F49" t="n">
-        <v>361.8196</v>
+        <v>526.3371</v>
       </c>
       <c r="G49" t="n">
-        <v>853.8</v>
+        <v>853.6333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>859</v>
       </c>
       <c r="C50" t="n">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D50" t="n">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E50" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F50" t="n">
-        <v>175</v>
+        <v>361.8196</v>
       </c>
       <c r="G50" t="n">
-        <v>853.9666666666667</v>
+        <v>853.8</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C51" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D51" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E51" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F51" t="n">
-        <v>285.11</v>
+        <v>175</v>
       </c>
       <c r="G51" t="n">
         <v>853.9666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E52" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F52" t="n">
-        <v>32.573</v>
+        <v>285.11</v>
       </c>
       <c r="G52" t="n">
-        <v>854.0166666666667</v>
+        <v>853.9666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C53" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D53" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E53" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="F53" t="n">
-        <v>552.3137</v>
+        <v>32.573</v>
       </c>
       <c r="G53" t="n">
-        <v>853.95</v>
+        <v>854.0166666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="C54" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D54" t="n">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="E54" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F54" t="n">
-        <v>234.8932</v>
+        <v>552.3137</v>
       </c>
       <c r="G54" t="n">
-        <v>853.7833333333333</v>
+        <v>853.95</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E55" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F55" t="n">
-        <v>32.8895</v>
+        <v>234.8932</v>
       </c>
       <c r="G55" t="n">
-        <v>853.7666666666667</v>
+        <v>853.7833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>849</v>
       </c>
       <c r="C56" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D56" t="n">
         <v>849</v>
       </c>
       <c r="E56" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F56" t="n">
-        <v>240.5497</v>
+        <v>32.8895</v>
       </c>
       <c r="G56" t="n">
-        <v>853.7</v>
+        <v>853.7666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>849</v>
+      </c>
+      <c r="C57" t="n">
         <v>845</v>
       </c>
-      <c r="C57" t="n">
-        <v>843</v>
-      </c>
       <c r="D57" t="n">
+        <v>849</v>
+      </c>
+      <c r="E57" t="n">
         <v>845</v>
       </c>
-      <c r="E57" t="n">
-        <v>843</v>
-      </c>
       <c r="F57" t="n">
-        <v>939.7007</v>
+        <v>240.5497</v>
       </c>
       <c r="G57" t="n">
-        <v>853.5833333333334</v>
+        <v>853.7</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C58" t="n">
         <v>843</v>
       </c>
       <c r="D58" t="n">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E58" t="n">
         <v>843</v>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>939.7007</v>
       </c>
       <c r="G58" t="n">
-        <v>853.5166666666667</v>
+        <v>853.5833333333334</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E59" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F59" t="n">
-        <v>4.2179</v>
+        <v>25</v>
       </c>
       <c r="G59" t="n">
-        <v>853.5</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E60" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F60" t="n">
-        <v>563.7768</v>
+        <v>4.2179</v>
       </c>
       <c r="G60" t="n">
-        <v>853.4333333333333</v>
+        <v>853.5</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E61" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F61" t="n">
-        <v>563.6076</v>
+        <v>563.7768</v>
       </c>
       <c r="G61" t="n">
-        <v>853.1666666666666</v>
+        <v>853.4333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E62" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F62" t="n">
-        <v>245.8712</v>
+        <v>563.6076</v>
       </c>
       <c r="G62" t="n">
-        <v>852.85</v>
+        <v>853.1666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E63" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F63" t="n">
-        <v>37.08</v>
+        <v>245.8712</v>
       </c>
       <c r="G63" t="n">
-        <v>852.5</v>
+        <v>852.85</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E64" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F64" t="n">
-        <v>245.871</v>
+        <v>37.08</v>
       </c>
       <c r="G64" t="n">
-        <v>852.3166666666667</v>
+        <v>852.5</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E65" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F65" t="n">
-        <v>2948.3305</v>
+        <v>245.871</v>
       </c>
       <c r="G65" t="n">
-        <v>852.15</v>
+        <v>852.3166666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C66" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D66" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E66" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F66" t="n">
-        <v>509.3001</v>
+        <v>2948.3305</v>
       </c>
       <c r="G66" t="n">
-        <v>852.1</v>
+        <v>852.15</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C67" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D67" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E67" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F67" t="n">
-        <v>37.095</v>
+        <v>509.3001</v>
       </c>
       <c r="G67" t="n">
-        <v>852.0666666666667</v>
+        <v>852.1</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E68" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F68" t="n">
-        <v>346.93</v>
+        <v>37.095</v>
       </c>
       <c r="G68" t="n">
-        <v>852.0166666666667</v>
+        <v>852.0666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E69" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F69" t="n">
-        <v>335</v>
+        <v>346.93</v>
       </c>
       <c r="G69" t="n">
-        <v>852.0833333333334</v>
+        <v>852.0166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C70" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D70" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E70" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="F70" t="n">
-        <v>2525.4301</v>
+        <v>335</v>
       </c>
       <c r="G70" t="n">
-        <v>851.9666666666667</v>
+        <v>852.0833333333334</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>846</v>
       </c>
       <c r="C71" t="n">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D71" t="n">
         <v>846</v>
       </c>
       <c r="E71" t="n">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F71" t="n">
-        <v>792.712</v>
+        <v>2525.4301</v>
       </c>
       <c r="G71" t="n">
-        <v>851.8833333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E72" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F72" t="n">
-        <v>293.062</v>
+        <v>792.712</v>
       </c>
       <c r="G72" t="n">
-        <v>851.8333333333334</v>
+        <v>851.8833333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E73" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F73" t="n">
         <v>293.062</v>
       </c>
       <c r="G73" t="n">
-        <v>851.8666666666667</v>
+        <v>851.8333333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E74" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F74" t="n">
-        <v>2.1335</v>
+        <v>293.062</v>
       </c>
       <c r="G74" t="n">
-        <v>851.9166666666666</v>
+        <v>851.8666666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E75" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2.1335</v>
       </c>
       <c r="G75" t="n">
-        <v>852.0666666666667</v>
+        <v>851.9166666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>855</v>
       </c>
       <c r="C76" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D76" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E76" t="n">
         <v>855</v>
       </c>
       <c r="F76" t="n">
-        <v>497.9812</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>852.15</v>
+        <v>852.0666666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C77" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D77" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E77" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F77" t="n">
-        <v>564</v>
+        <v>497.9812</v>
       </c>
       <c r="G77" t="n">
-        <v>852.2</v>
+        <v>852.15</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="C78" t="n">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="D78" t="n">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="E78" t="n">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="F78" t="n">
-        <v>1152.18</v>
+        <v>564</v>
       </c>
       <c r="G78" t="n">
-        <v>851.9833333333333</v>
+        <v>852.2</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,25 +2646,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C79" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D79" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E79" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F79" t="n">
-        <v>600</v>
+        <v>1152.18</v>
       </c>
       <c r="G79" t="n">
-        <v>851.8166666666667</v>
+        <v>851.9833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E80" t="n">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F80" t="n">
-        <v>47.6644</v>
+        <v>600</v>
       </c>
       <c r="G80" t="n">
-        <v>851.6666666666666</v>
+        <v>851.8166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E81" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F81" t="n">
-        <v>771.4227</v>
+        <v>47.6644</v>
       </c>
       <c r="G81" t="n">
-        <v>851.5333333333333</v>
+        <v>851.6666666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E82" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F82" t="n">
-        <v>510</v>
+        <v>771.4227</v>
       </c>
       <c r="G82" t="n">
-        <v>851.4333333333333</v>
+        <v>851.5333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E83" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F83" t="n">
-        <v>397.5</v>
+        <v>510</v>
       </c>
       <c r="G83" t="n">
-        <v>851.3</v>
+        <v>851.4333333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C84" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D84" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E84" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F84" t="n">
-        <v>427.917</v>
+        <v>397.5</v>
       </c>
       <c r="G84" t="n">
-        <v>851.2166666666667</v>
+        <v>851.3</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,10 +2820,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>854</v>
+      </c>
+      <c r="C85" t="n">
         <v>855</v>
-      </c>
-      <c r="C85" t="n">
-        <v>854</v>
       </c>
       <c r="D85" t="n">
         <v>855</v>
@@ -2578,12 +2832,15 @@
         <v>854</v>
       </c>
       <c r="F85" t="n">
-        <v>464.1913</v>
+        <v>427.917</v>
       </c>
       <c r="G85" t="n">
-        <v>851.25</v>
+        <v>851.2166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C86" t="n">
         <v>854</v>
       </c>
       <c r="D86" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E86" t="n">
         <v>854</v>
       </c>
       <c r="F86" t="n">
-        <v>596.5824</v>
+        <v>464.1913</v>
       </c>
       <c r="G86" t="n">
-        <v>851.1166666666667</v>
+        <v>851.25</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>854</v>
       </c>
       <c r="F87" t="n">
-        <v>684.99</v>
+        <v>596.5824</v>
       </c>
       <c r="G87" t="n">
-        <v>851.1666666666666</v>
+        <v>851.1166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E88" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>684.99</v>
       </c>
       <c r="G88" t="n">
-        <v>851.2166666666667</v>
+        <v>851.1666666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C89" t="n">
         <v>857</v>
       </c>
       <c r="D89" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E89" t="n">
         <v>857</v>
       </c>
       <c r="F89" t="n">
-        <v>32.8766</v>
+        <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>851.3166666666667</v>
+        <v>851.2166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C90" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D90" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E90" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="F90" t="n">
-        <v>74.8125</v>
+        <v>32.8766</v>
       </c>
       <c r="G90" t="n">
-        <v>851.3333333333334</v>
+        <v>851.3166666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E91" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F91" t="n">
-        <v>32.8766</v>
+        <v>74.8125</v>
       </c>
       <c r="G91" t="n">
-        <v>851.4333333333333</v>
+        <v>851.3333333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E92" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F92" t="n">
-        <v>300</v>
+        <v>32.8766</v>
       </c>
       <c r="G92" t="n">
-        <v>851.5666666666667</v>
+        <v>851.4333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E93" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F93" t="n">
-        <v>1125</v>
+        <v>300</v>
       </c>
       <c r="G93" t="n">
-        <v>851.7666666666667</v>
+        <v>851.5666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C94" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D94" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E94" t="n">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F94" t="n">
-        <v>77.97</v>
+        <v>1125</v>
       </c>
       <c r="G94" t="n">
-        <v>851.9666666666667</v>
+        <v>851.7666666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C95" t="n">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D95" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E95" t="n">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>77.97</v>
       </c>
       <c r="G95" t="n">
-        <v>852.1833333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2867,9 +3154,12 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>852.5333333333333</v>
+        <v>852.1833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>867</v>
       </c>
       <c r="C97" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D97" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E97" t="n">
         <v>867</v>
       </c>
       <c r="F97" t="n">
-        <v>1786.8021</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>852.8833333333333</v>
+        <v>852.5333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C98" t="n">
         <v>874</v>
@@ -2913,15 +3206,18 @@
         <v>874</v>
       </c>
       <c r="E98" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="F98" t="n">
-        <v>19.3612</v>
+        <v>1786.8021</v>
       </c>
       <c r="G98" t="n">
-        <v>853.25</v>
+        <v>852.8833333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F99" t="n">
-        <v>121.95</v>
+        <v>19.3612</v>
       </c>
       <c r="G99" t="n">
-        <v>853.6</v>
+        <v>853.25</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,25 +3255,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E100" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F100" t="n">
+        <v>121.95</v>
+      </c>
+      <c r="G100" t="n">
+        <v>853.6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>853.9</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C101" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D101" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E101" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F101" t="n">
-        <v>380.1082</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>854.3166666666667</v>
+        <v>853.9</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,25 +3313,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>876</v>
+      </c>
+      <c r="C102" t="n">
         <v>880</v>
       </c>
-      <c r="C102" t="n">
-        <v>884</v>
-      </c>
       <c r="D102" t="n">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E102" t="n">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F102" t="n">
-        <v>185.5851</v>
+        <v>380.1082</v>
       </c>
       <c r="G102" t="n">
-        <v>854.7166666666667</v>
+        <v>854.3166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C103" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D103" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E103" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>185.5851</v>
       </c>
       <c r="G103" t="n">
-        <v>855.2</v>
+        <v>854.7166666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,25 +3371,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C104" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D104" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E104" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F104" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>855.7</v>
+        <v>855.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="C105" t="n">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="D105" t="n">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="E105" t="n">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="F105" t="n">
-        <v>474</v>
+        <v>26</v>
       </c>
       <c r="G105" t="n">
-        <v>856.0166666666667</v>
+        <v>855.7</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E106" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="G106" t="n">
-        <v>856.3333333333334</v>
+        <v>856.0166666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C107" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D107" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E107" t="n">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F107" t="n">
-        <v>1315.1809</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>856.6666666666666</v>
+        <v>856.3333333333334</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C108" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D108" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E108" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F108" t="n">
-        <v>351.6429</v>
+        <v>1315.1809</v>
       </c>
       <c r="G108" t="n">
-        <v>856.8833333333333</v>
+        <v>856.6666666666666</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C109" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D109" t="n">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E109" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F109" t="n">
-        <v>1251.5649</v>
+        <v>351.6429</v>
       </c>
       <c r="G109" t="n">
-        <v>857.1333333333333</v>
+        <v>856.8833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>876</v>
       </c>
       <c r="C110" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D110" t="n">
         <v>876</v>
       </c>
       <c r="E110" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F110" t="n">
-        <v>7.2541</v>
+        <v>1251.5649</v>
       </c>
       <c r="G110" t="n">
-        <v>857.3333333333334</v>
+        <v>857.1333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="E111" t="n">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>7.2541</v>
       </c>
       <c r="G111" t="n">
-        <v>857.7</v>
+        <v>857.3333333333334</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E112" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F112" t="n">
-        <v>47.4418</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>858.0333333333333</v>
+        <v>857.7</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C113" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D113" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E113" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F113" t="n">
-        <v>275.2076</v>
+        <v>47.4418</v>
       </c>
       <c r="G113" t="n">
-        <v>858.4833333333333</v>
+        <v>858.0333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C114" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D114" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E114" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F114" t="n">
-        <v>15.7413</v>
+        <v>275.2076</v>
       </c>
       <c r="G114" t="n">
-        <v>858.9166666666666</v>
+        <v>858.4833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E115" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F115" t="n">
-        <v>36.6748</v>
+        <v>15.7413</v>
       </c>
       <c r="G115" t="n">
-        <v>859.35</v>
+        <v>858.9166666666666</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>875</v>
       </c>
       <c r="F116" t="n">
-        <v>257.919</v>
+        <v>36.6748</v>
       </c>
       <c r="G116" t="n">
-        <v>859.85</v>
+        <v>859.35</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C117" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D117" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E117" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F117" t="n">
-        <v>316.5738</v>
+        <v>257.919</v>
       </c>
       <c r="G117" t="n">
-        <v>860.3666666666667</v>
+        <v>859.85</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C118" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D118" t="n">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E118" t="n">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F118" t="n">
-        <v>15.0525</v>
+        <v>316.5738</v>
       </c>
       <c r="G118" t="n">
-        <v>860.9666666666667</v>
+        <v>860.3666666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C119" t="n">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="D119" t="n">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="E119" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F119" t="n">
-        <v>1197.6166</v>
+        <v>15.0525</v>
       </c>
       <c r="G119" t="n">
-        <v>861.7166666666667</v>
+        <v>860.9666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C120" t="n">
         <v>894</v>
@@ -3485,15 +3844,18 @@
         <v>894</v>
       </c>
       <c r="E120" t="n">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="F120" t="n">
-        <v>433.231</v>
+        <v>1197.6166</v>
       </c>
       <c r="G120" t="n">
-        <v>862.5666666666667</v>
+        <v>861.7166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C121" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="D121" t="n">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E121" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="F121" t="n">
-        <v>292.0606</v>
+        <v>433.231</v>
       </c>
       <c r="G121" t="n">
-        <v>863.3666666666667</v>
+        <v>862.5666666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C122" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="D122" t="n">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="E122" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="F122" t="n">
-        <v>1060.3203</v>
+        <v>292.0606</v>
       </c>
       <c r="G122" t="n">
-        <v>864.0333333333333</v>
+        <v>863.3666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C123" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D123" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E123" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F123" t="n">
-        <v>859.8069</v>
+        <v>1060.3203</v>
       </c>
       <c r="G123" t="n">
-        <v>864.7333333333333</v>
+        <v>864.0333333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E124" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F124" t="n">
-        <v>430.3911</v>
+        <v>859.8069</v>
       </c>
       <c r="G124" t="n">
-        <v>865.3666666666667</v>
+        <v>864.7333333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E125" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F125" t="n">
-        <v>432.3519</v>
+        <v>430.3911</v>
       </c>
       <c r="G125" t="n">
-        <v>865.9166666666666</v>
+        <v>865.3666666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E126" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="F126" t="n">
-        <v>217.333</v>
+        <v>432.3519</v>
       </c>
       <c r="G126" t="n">
-        <v>866.3666666666667</v>
+        <v>865.9166666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>873</v>
       </c>
       <c r="C127" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D127" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E127" t="n">
         <v>873</v>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>217.333</v>
       </c>
       <c r="G127" t="n">
-        <v>866.85</v>
+        <v>866.3666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="C128" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D128" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E128" t="n">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="F128" t="n">
-        <v>1778.2435</v>
+        <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>867.2333333333333</v>
+        <v>866.85</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C129" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D129" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E129" t="n">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F129" t="n">
-        <v>31.4401</v>
+        <v>1778.2435</v>
       </c>
       <c r="G129" t="n">
-        <v>867.5333333333333</v>
+        <v>867.2333333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>869</v>
       </c>
       <c r="F130" t="n">
-        <v>36.1</v>
+        <v>31.4401</v>
       </c>
       <c r="G130" t="n">
-        <v>867.9833333333333</v>
+        <v>867.5333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C131" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D131" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E131" t="n">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F131" t="n">
-        <v>1422.5451</v>
+        <v>36.1</v>
       </c>
       <c r="G131" t="n">
-        <v>868.45</v>
+        <v>867.9833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C132" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D132" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E132" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F132" t="n">
-        <v>779.9598999999999</v>
+        <v>1422.5451</v>
       </c>
       <c r="G132" t="n">
-        <v>868.8833333333333</v>
+        <v>868.45</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E133" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F133" t="n">
-        <v>251.1333</v>
+        <v>779.9598999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>869.3</v>
+        <v>868.8833333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>873</v>
       </c>
       <c r="C134" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D134" t="n">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="E134" t="n">
         <v>873</v>
       </c>
       <c r="F134" t="n">
-        <v>678.1979</v>
+        <v>251.1333</v>
       </c>
       <c r="G134" t="n">
-        <v>869.7</v>
+        <v>869.3</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C135" t="n">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D135" t="n">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="E135" t="n">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="F135" t="n">
-        <v>7.2541</v>
+        <v>678.1979</v>
       </c>
       <c r="G135" t="n">
-        <v>870.15</v>
+        <v>869.7</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E136" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F136" t="n">
-        <v>328.724</v>
+        <v>7.2541</v>
       </c>
       <c r="G136" t="n">
-        <v>870.5666666666667</v>
+        <v>870.15</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E137" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F137" t="n">
-        <v>515.9400000000001</v>
+        <v>328.724</v>
       </c>
       <c r="G137" t="n">
-        <v>871.05</v>
+        <v>870.5666666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C138" t="n">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="D138" t="n">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="E138" t="n">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F138" t="n">
-        <v>8110.306891098901</v>
+        <v>515.9400000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>872.15</v>
+        <v>871.05</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C139" t="n">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="D139" t="n">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="E139" t="n">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="F139" t="n">
-        <v>4.9475</v>
+        <v>8110.306891098901</v>
       </c>
       <c r="G139" t="n">
-        <v>872.8166666666667</v>
+        <v>872.15</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,25 +4415,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E140" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F140" t="n">
-        <v>785.866</v>
+        <v>4.9475</v>
       </c>
       <c r="G140" t="n">
-        <v>873.55</v>
+        <v>872.8166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C141" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D141" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E141" t="n">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="F141" t="n">
-        <v>121.57</v>
+        <v>785.866</v>
       </c>
       <c r="G141" t="n">
-        <v>874.2666666666667</v>
+        <v>873.55</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,7 +4473,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C142" t="n">
         <v>897</v>
@@ -4057,15 +4482,18 @@
         <v>897</v>
       </c>
       <c r="E142" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F142" t="n">
-        <v>330</v>
+        <v>121.57</v>
       </c>
       <c r="G142" t="n">
-        <v>875</v>
+        <v>874.2666666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>896</v>
       </c>
       <c r="C143" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D143" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E143" t="n">
         <v>896</v>
       </c>
       <c r="F143" t="n">
-        <v>111.6</v>
+        <v>330</v>
       </c>
       <c r="G143" t="n">
-        <v>875.75</v>
+        <v>875</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>896</v>
       </c>
       <c r="F144" t="n">
-        <v>194.3</v>
+        <v>111.6</v>
       </c>
       <c r="G144" t="n">
-        <v>876.4333333333333</v>
+        <v>875.75</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E145" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F145" t="n">
-        <v>308.771</v>
+        <v>194.3</v>
       </c>
       <c r="G145" t="n">
-        <v>877.1166666666667</v>
+        <v>876.4333333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>895</v>
       </c>
       <c r="C146" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D146" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E146" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F146" t="n">
-        <v>1174.8254</v>
+        <v>308.771</v>
       </c>
       <c r="G146" t="n">
-        <v>877.75</v>
+        <v>877.1166666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>895</v>
+      </c>
+      <c r="C147" t="n">
         <v>892</v>
       </c>
-      <c r="C147" t="n">
-        <v>885</v>
-      </c>
       <c r="D147" t="n">
+        <v>896</v>
+      </c>
+      <c r="E147" t="n">
         <v>892</v>
       </c>
-      <c r="E147" t="n">
-        <v>885</v>
-      </c>
       <c r="F147" t="n">
-        <v>1965</v>
+        <v>1174.8254</v>
       </c>
       <c r="G147" t="n">
-        <v>878.2666666666667</v>
+        <v>877.75</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="C148" t="n">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="D148" t="n">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="E148" t="n">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>1965</v>
       </c>
       <c r="G148" t="n">
-        <v>878.6</v>
+        <v>878.2666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E149" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>879.0166666666667</v>
+        <v>878.6</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>882</v>
       </c>
       <c r="F150" t="n">
-        <v>526.9177</v>
+        <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>879.5</v>
+        <v>879.0166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C151" t="n">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="D151" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E151" t="n">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="F151" t="n">
-        <v>3694.1399</v>
+        <v>526.9177</v>
       </c>
       <c r="G151" t="n">
-        <v>879.7166666666667</v>
+        <v>879.5</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>880</v>
+      </c>
+      <c r="C152" t="n">
         <v>871</v>
       </c>
-      <c r="C152" t="n">
-        <v>867</v>
-      </c>
       <c r="D152" t="n">
+        <v>880</v>
+      </c>
+      <c r="E152" t="n">
         <v>871</v>
       </c>
-      <c r="E152" t="n">
-        <v>867</v>
-      </c>
       <c r="F152" t="n">
-        <v>500.85</v>
+        <v>3694.1399</v>
       </c>
       <c r="G152" t="n">
-        <v>879.8333333333334</v>
+        <v>879.7166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C153" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D153" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E153" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F153" t="n">
-        <v>541</v>
+        <v>500.85</v>
       </c>
       <c r="G153" t="n">
-        <v>879.8666666666667</v>
+        <v>879.8333333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="C154" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D154" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="E154" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="G154" t="n">
-        <v>879.85</v>
+        <v>879.8666666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C155" t="n">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="D155" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E155" t="n">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="F155" t="n">
-        <v>3252.4724</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>879.55</v>
+        <v>879.85</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="C156" t="n">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D156" t="n">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="E156" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F156" t="n">
-        <v>792.7080999999999</v>
+        <v>3252.4724</v>
       </c>
       <c r="G156" t="n">
-        <v>879.1666666666666</v>
+        <v>879.55</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>851</v>
       </c>
       <c r="C157" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D157" t="n">
         <v>851</v>
       </c>
       <c r="E157" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F157" t="n">
-        <v>274.037</v>
+        <v>792.7080999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>878.7333333333333</v>
+        <v>879.1666666666666</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C158" t="n">
-        <v>887</v>
+        <v>848</v>
       </c>
       <c r="D158" t="n">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="E158" t="n">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F158" t="n">
-        <v>24</v>
+        <v>274.037</v>
       </c>
       <c r="G158" t="n">
-        <v>878.95</v>
+        <v>878.7333333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C159" t="n">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="D159" t="n">
-        <v>859</v>
+        <v>887</v>
       </c>
       <c r="E159" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F159" t="n">
-        <v>288.4246</v>
+        <v>24</v>
       </c>
       <c r="G159" t="n">
-        <v>878.6666666666666</v>
+        <v>878.95</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C160" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D160" t="n">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E160" t="n">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F160" t="n">
-        <v>235.571</v>
+        <v>288.4246</v>
       </c>
       <c r="G160" t="n">
-        <v>878.4</v>
+        <v>878.6666666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C161" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D161" t="n">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E161" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>235.571</v>
       </c>
       <c r="G161" t="n">
-        <v>878.0666666666667</v>
+        <v>878.4</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C162" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D162" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E162" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>877.7333333333333</v>
+        <v>878.0666666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E163" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G163" t="n">
-        <v>877.3166666666667</v>
+        <v>877.7333333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C164" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D164" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E164" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F164" t="n">
-        <v>44.5924</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>876.9166666666666</v>
+        <v>877.3166666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C165" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D165" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E165" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F165" t="n">
-        <v>525.7905</v>
+        <v>44.5924</v>
       </c>
       <c r="G165" t="n">
-        <v>876.8166666666667</v>
+        <v>876.9166666666666</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E166" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>525.7905</v>
       </c>
       <c r="G166" t="n">
-        <v>876.65</v>
+        <v>876.8166666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>862</v>
       </c>
       <c r="F167" t="n">
-        <v>288.9</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>876.45</v>
+        <v>876.65</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C168" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D168" t="n">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E168" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F168" t="n">
-        <v>118.5511</v>
+        <v>288.9</v>
       </c>
       <c r="G168" t="n">
-        <v>876.3333333333334</v>
+        <v>876.45</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>865</v>
+      </c>
+      <c r="C169" t="n">
         <v>864</v>
       </c>
-      <c r="C169" t="n">
-        <v>862</v>
-      </c>
       <c r="D169" t="n">
+        <v>865</v>
+      </c>
+      <c r="E169" t="n">
         <v>864</v>
       </c>
-      <c r="E169" t="n">
-        <v>862</v>
-      </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>118.5511</v>
       </c>
       <c r="G169" t="n">
-        <v>876.15</v>
+        <v>876.3333333333334</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>864</v>
       </c>
       <c r="C170" t="n">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D170" t="n">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E170" t="n">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F170" t="n">
-        <v>1100.7904</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>875.9333333333333</v>
+        <v>876.15</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C171" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D171" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E171" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>1100.7904</v>
       </c>
       <c r="G171" t="n">
-        <v>875.55</v>
+        <v>875.9333333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C172" t="n">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="D172" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E172" t="n">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="F172" t="n">
-        <v>4018.1589</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>875.0833333333334</v>
+        <v>875.55</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="C173" t="n">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D173" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E173" t="n">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F173" t="n">
-        <v>401.8</v>
+        <v>4018.1589</v>
       </c>
       <c r="G173" t="n">
-        <v>874.7166666666667</v>
+        <v>875.0833333333334</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C174" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D174" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E174" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F174" t="n">
-        <v>419.8643</v>
+        <v>401.8</v>
       </c>
       <c r="G174" t="n">
-        <v>874.4</v>
+        <v>874.7166666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C175" t="n">
         <v>857</v>
       </c>
       <c r="D175" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E175" t="n">
         <v>857</v>
       </c>
       <c r="F175" t="n">
-        <v>2140</v>
+        <v>419.8643</v>
       </c>
       <c r="G175" t="n">
-        <v>874.1</v>
+        <v>874.4</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>857</v>
       </c>
       <c r="F176" t="n">
-        <v>1670</v>
+        <v>2140</v>
       </c>
       <c r="G176" t="n">
-        <v>873.8</v>
+        <v>874.1</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C177" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D177" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E177" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F177" t="n">
-        <v>5</v>
+        <v>1670</v>
       </c>
       <c r="G177" t="n">
-        <v>873.5833333333334</v>
+        <v>873.8</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E178" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F178" t="n">
-        <v>37.85</v>
+        <v>5</v>
       </c>
       <c r="G178" t="n">
-        <v>873.2166666666667</v>
+        <v>873.5833333333334</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E179" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F179" t="n">
-        <v>277.4205</v>
+        <v>37.85</v>
       </c>
       <c r="G179" t="n">
-        <v>872.65</v>
+        <v>873.2166666666667</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C180" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D180" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E180" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F180" t="n">
-        <v>1437.882</v>
+        <v>277.4205</v>
       </c>
       <c r="G180" t="n">
-        <v>872.05</v>
+        <v>872.65</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,10 +5604,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C181" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D181" t="n">
         <v>859</v>
@@ -5074,12 +5616,15 @@
         <v>857</v>
       </c>
       <c r="F181" t="n">
-        <v>255.8909</v>
+        <v>1437.882</v>
       </c>
       <c r="G181" t="n">
-        <v>871.5166666666667</v>
+        <v>872.05</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C182" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D182" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E182" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F182" t="n">
-        <v>1171.1909</v>
+        <v>255.8909</v>
       </c>
       <c r="G182" t="n">
-        <v>871.0666666666667</v>
+        <v>871.5166666666667</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C183" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D183" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E183" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F183" t="n">
-        <v>1457.6155</v>
+        <v>1171.1909</v>
       </c>
       <c r="G183" t="n">
-        <v>870.5166666666667</v>
+        <v>871.0666666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C184" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D184" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E184" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F184" t="n">
-        <v>31.954</v>
+        <v>1457.6155</v>
       </c>
       <c r="G184" t="n">
-        <v>869.9166666666666</v>
+        <v>870.5166666666667</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C185" t="n">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="D185" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E185" t="n">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="F185" t="n">
-        <v>8555.9131</v>
+        <v>31.954</v>
       </c>
       <c r="G185" t="n">
-        <v>869.1333333333333</v>
+        <v>869.9166666666666</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="C186" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D186" t="n">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="E186" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F186" t="n">
-        <v>287.5152</v>
+        <v>8555.9131</v>
       </c>
       <c r="G186" t="n">
-        <v>868.3833333333333</v>
+        <v>869.1333333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5221,21 +5781,24 @@
         <v>828</v>
       </c>
       <c r="C187" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D187" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="E187" t="n">
         <v>828</v>
       </c>
       <c r="F187" t="n">
-        <v>1085.36</v>
+        <v>287.5152</v>
       </c>
       <c r="G187" t="n">
-        <v>867.7333333333333</v>
+        <v>868.3833333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>828</v>
       </c>
       <c r="C188" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="D188" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="E188" t="n">
         <v>828</v>
       </c>
       <c r="F188" t="n">
-        <v>16.0504</v>
+        <v>1085.36</v>
       </c>
       <c r="G188" t="n">
-        <v>867.0333333333333</v>
+        <v>867.7333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E189" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F189" t="n">
-        <v>120.3982</v>
+        <v>16.0504</v>
       </c>
       <c r="G189" t="n">
-        <v>866.3333333333334</v>
+        <v>867.0333333333333</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E190" t="n">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F190" t="n">
-        <v>397.59</v>
+        <v>120.3982</v>
       </c>
       <c r="G190" t="n">
-        <v>865.7</v>
+        <v>866.3333333333334</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C191" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D191" t="n">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="E191" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F191" t="n">
-        <v>1740.0901</v>
+        <v>397.59</v>
       </c>
       <c r="G191" t="n">
-        <v>864.9333333333333</v>
+        <v>865.7</v>
       </c>
       <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C192" t="n">
         <v>828</v>
       </c>
       <c r="D192" t="n">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="E192" t="n">
         <v>828</v>
       </c>
       <c r="F192" t="n">
-        <v>60</v>
+        <v>1740.0901</v>
       </c>
       <c r="G192" t="n">
-        <v>864.15</v>
+        <v>864.9333333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C193" t="n">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D193" t="n">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="E193" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F193" t="n">
-        <v>1387.5994</v>
+        <v>60</v>
       </c>
       <c r="G193" t="n">
-        <v>863.6</v>
+        <v>864.15</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C194" t="n">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D194" t="n">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="E194" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F194" t="n">
-        <v>800</v>
+        <v>1387.5994</v>
       </c>
       <c r="G194" t="n">
-        <v>862.9333333333333</v>
+        <v>863.6</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C195" t="n">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D195" t="n">
         <v>834</v>
       </c>
       <c r="E195" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="F195" t="n">
-        <v>862.1913</v>
+        <v>800</v>
       </c>
       <c r="G195" t="n">
-        <v>862.1</v>
+        <v>862.9333333333333</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>833</v>
+      </c>
+      <c r="C196" t="n">
+        <v>832</v>
+      </c>
+      <c r="D196" t="n">
+        <v>834</v>
+      </c>
+      <c r="E196" t="n">
         <v>831</v>
       </c>
-      <c r="C196" t="n">
-        <v>826</v>
-      </c>
-      <c r="D196" t="n">
-        <v>831</v>
-      </c>
-      <c r="E196" t="n">
-        <v>826</v>
-      </c>
       <c r="F196" t="n">
-        <v>577.5417</v>
+        <v>862.1913</v>
       </c>
       <c r="G196" t="n">
-        <v>861.1833333333333</v>
+        <v>862.1</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="C197" t="n">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D197" t="n">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="E197" t="n">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F197" t="n">
-        <v>2</v>
+        <v>577.5417</v>
       </c>
       <c r="G197" t="n">
-        <v>860.4</v>
+        <v>861.1833333333333</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C198" t="n">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="D198" t="n">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="E198" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>859</v>
+        <v>860.4</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C199" t="n">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="D199" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E199" t="n">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="F199" t="n">
-        <v>135.5214</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>857.85</v>
+        <v>859</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="C200" t="n">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="D200" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E200" t="n">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="F200" t="n">
-        <v>1.1</v>
+        <v>135.5214</v>
       </c>
       <c r="G200" t="n">
-        <v>856.9166666666666</v>
+        <v>857.85</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="C201" t="n">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="D201" t="n">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="E201" t="n">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="F201" t="n">
-        <v>70.93000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G201" t="n">
-        <v>855.6</v>
+        <v>856.9166666666666</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5611,21 +6216,24 @@
         <v>821</v>
       </c>
       <c r="C202" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D202" t="n">
         <v>821</v>
       </c>
       <c r="E202" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F202" t="n">
-        <v>164.264</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="G202" t="n">
-        <v>854.3333333333334</v>
+        <v>855.6</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E203" t="n">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F203" t="n">
-        <v>3043.8094</v>
+        <v>164.264</v>
       </c>
       <c r="G203" t="n">
-        <v>853.1333333333333</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>824</v>
       </c>
       <c r="C204" t="n">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="D204" t="n">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="E204" t="n">
         <v>824</v>
       </c>
       <c r="F204" t="n">
-        <v>237.874</v>
+        <v>3043.8094</v>
       </c>
       <c r="G204" t="n">
-        <v>852.1833333333333</v>
+        <v>853.1333333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C205" t="n">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="D205" t="n">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="E205" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F205" t="n">
-        <v>251.1786</v>
+        <v>237.874</v>
       </c>
       <c r="G205" t="n">
-        <v>851.0666666666667</v>
+        <v>852.1833333333333</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E206" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F206" t="n">
-        <v>36.2781</v>
+        <v>251.1786</v>
       </c>
       <c r="G206" t="n">
-        <v>850.05</v>
+        <v>851.0666666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E207" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F207" t="n">
-        <v>447.7433</v>
+        <v>36.2781</v>
       </c>
       <c r="G207" t="n">
-        <v>849.1666666666666</v>
+        <v>850.05</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E208" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F208" t="n">
-        <v>499.9217</v>
+        <v>447.7433</v>
       </c>
       <c r="G208" t="n">
-        <v>848.4</v>
+        <v>849.1666666666666</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C209" t="n">
         <v>831</v>
       </c>
       <c r="D209" t="n">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E209" t="n">
         <v>831</v>
       </c>
       <c r="F209" t="n">
-        <v>851.629</v>
+        <v>499.9217</v>
       </c>
       <c r="G209" t="n">
-        <v>847.55</v>
+        <v>848.4</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C210" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D210" t="n">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E210" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F210" t="n">
-        <v>1847.8064</v>
+        <v>851.629</v>
       </c>
       <c r="G210" t="n">
-        <v>846.8333333333334</v>
+        <v>847.55</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C211" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D211" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E211" t="n">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="F211" t="n">
-        <v>29.6687</v>
+        <v>1847.8064</v>
       </c>
       <c r="G211" t="n">
-        <v>846.2833333333333</v>
+        <v>846.8333333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E212" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F212" t="n">
-        <v>112.103</v>
+        <v>29.6687</v>
       </c>
       <c r="G212" t="n">
-        <v>845.8666666666667</v>
+        <v>846.2833333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,544 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C213" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D213" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E213" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F213" t="n">
-        <v>11.9104</v>
+        <v>112.103</v>
       </c>
       <c r="G213" t="n">
-        <v>845.45</v>
+        <v>845.8666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>851</v>
-      </c>
-      <c r="C214" t="n">
-        <v>851</v>
-      </c>
-      <c r="D214" t="n">
-        <v>851</v>
-      </c>
-      <c r="E214" t="n">
-        <v>851</v>
-      </c>
-      <c r="F214" t="n">
-        <v>16.9313</v>
-      </c>
-      <c r="G214" t="n">
-        <v>845.2333333333333</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>852</v>
-      </c>
-      <c r="C215" t="n">
-        <v>846</v>
-      </c>
-      <c r="D215" t="n">
-        <v>852</v>
-      </c>
-      <c r="E215" t="n">
-        <v>846</v>
-      </c>
-      <c r="F215" t="n">
-        <v>813.9915</v>
-      </c>
-      <c r="G215" t="n">
-        <v>845.1833333333333</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>854</v>
-      </c>
-      <c r="C216" t="n">
-        <v>854</v>
-      </c>
-      <c r="D216" t="n">
-        <v>854</v>
-      </c>
-      <c r="E216" t="n">
-        <v>854</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5</v>
-      </c>
-      <c r="G216" t="n">
-        <v>845.35</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>851</v>
-      </c>
-      <c r="C217" t="n">
-        <v>850</v>
-      </c>
-      <c r="D217" t="n">
-        <v>851</v>
-      </c>
-      <c r="E217" t="n">
-        <v>850</v>
-      </c>
-      <c r="F217" t="n">
-        <v>707.95</v>
-      </c>
-      <c r="G217" t="n">
-        <v>845.3833333333333</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>847</v>
-      </c>
-      <c r="C218" t="n">
-        <v>846</v>
-      </c>
-      <c r="D218" t="n">
-        <v>847</v>
-      </c>
-      <c r="E218" t="n">
-        <v>846</v>
-      </c>
-      <c r="F218" t="n">
-        <v>278.8037</v>
-      </c>
-      <c r="G218" t="n">
-        <v>844.7</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>846</v>
-      </c>
-      <c r="C219" t="n">
-        <v>846</v>
-      </c>
-      <c r="D219" t="n">
-        <v>846</v>
-      </c>
-      <c r="E219" t="n">
-        <v>846</v>
-      </c>
-      <c r="F219" t="n">
-        <v>422.0906</v>
-      </c>
-      <c r="G219" t="n">
-        <v>844.5</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>840</v>
-      </c>
-      <c r="C220" t="n">
-        <v>840</v>
-      </c>
-      <c r="D220" t="n">
-        <v>840</v>
-      </c>
-      <c r="E220" t="n">
-        <v>840</v>
-      </c>
-      <c r="F220" t="n">
-        <v>37.5395</v>
-      </c>
-      <c r="G220" t="n">
-        <v>844.1333333333333</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>849</v>
-      </c>
-      <c r="C221" t="n">
-        <v>849</v>
-      </c>
-      <c r="D221" t="n">
-        <v>849</v>
-      </c>
-      <c r="E221" t="n">
-        <v>849</v>
-      </c>
-      <c r="F221" t="n">
-        <v>143.54</v>
-      </c>
-      <c r="G221" t="n">
-        <v>843.95</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>849</v>
-      </c>
-      <c r="C222" t="n">
-        <v>849</v>
-      </c>
-      <c r="D222" t="n">
-        <v>849</v>
-      </c>
-      <c r="E222" t="n">
-        <v>849</v>
-      </c>
-      <c r="F222" t="n">
-        <v>113.2244</v>
-      </c>
-      <c r="G222" t="n">
-        <v>843.7</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>848</v>
-      </c>
-      <c r="C223" t="n">
-        <v>848</v>
-      </c>
-      <c r="D223" t="n">
-        <v>848</v>
-      </c>
-      <c r="E223" t="n">
-        <v>848</v>
-      </c>
-      <c r="F223" t="n">
-        <v>352.6155</v>
-      </c>
-      <c r="G223" t="n">
-        <v>843.4833333333333</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>848</v>
-      </c>
-      <c r="C224" t="n">
-        <v>848</v>
-      </c>
-      <c r="D224" t="n">
-        <v>848</v>
-      </c>
-      <c r="E224" t="n">
-        <v>848</v>
-      </c>
-      <c r="F224" t="n">
-        <v>362.2804</v>
-      </c>
-      <c r="G224" t="n">
-        <v>843.2833333333333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>847</v>
-      </c>
-      <c r="C225" t="n">
-        <v>847</v>
-      </c>
-      <c r="D225" t="n">
-        <v>847</v>
-      </c>
-      <c r="E225" t="n">
-        <v>847</v>
-      </c>
-      <c r="F225" t="n">
-        <v>100</v>
-      </c>
-      <c r="G225" t="n">
-        <v>843.0166666666667</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>843</v>
-      </c>
-      <c r="C226" t="n">
-        <v>843</v>
-      </c>
-      <c r="D226" t="n">
-        <v>843</v>
-      </c>
-      <c r="E226" t="n">
-        <v>843</v>
-      </c>
-      <c r="F226" t="n">
-        <v>425.5556</v>
-      </c>
-      <c r="G226" t="n">
-        <v>842.7</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>843</v>
-      </c>
-      <c r="C227" t="n">
-        <v>843</v>
-      </c>
-      <c r="D227" t="n">
-        <v>843</v>
-      </c>
-      <c r="E227" t="n">
-        <v>843</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1.5476</v>
-      </c>
-      <c r="G227" t="n">
-        <v>842.3833333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>844</v>
-      </c>
-      <c r="C228" t="n">
-        <v>844</v>
-      </c>
-      <c r="D228" t="n">
-        <v>844</v>
-      </c>
-      <c r="E228" t="n">
-        <v>844</v>
-      </c>
-      <c r="F228" t="n">
-        <v>48.12</v>
-      </c>
-      <c r="G228" t="n">
-        <v>842.05</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>844</v>
-      </c>
-      <c r="C229" t="n">
-        <v>844</v>
-      </c>
-      <c r="D229" t="n">
-        <v>844</v>
-      </c>
-      <c r="E229" t="n">
-        <v>844</v>
-      </c>
-      <c r="F229" t="n">
-        <v>50</v>
-      </c>
-      <c r="G229" t="n">
-        <v>841.75</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>847</v>
-      </c>
-      <c r="C230" t="n">
-        <v>847</v>
-      </c>
-      <c r="D230" t="n">
-        <v>847</v>
-      </c>
-      <c r="E230" t="n">
-        <v>847</v>
-      </c>
-      <c r="F230" t="n">
-        <v>400.4292</v>
-      </c>
-      <c r="G230" t="n">
-        <v>841.4833333333333</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>848</v>
-      </c>
-      <c r="C231" t="n">
-        <v>854</v>
-      </c>
-      <c r="D231" t="n">
-        <v>854</v>
-      </c>
-      <c r="E231" t="n">
-        <v>848</v>
-      </c>
-      <c r="F231" t="n">
-        <v>270</v>
-      </c>
-      <c r="G231" t="n">
-        <v>841.3833333333333</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>854</v>
-      </c>
-      <c r="C232" t="n">
-        <v>855</v>
-      </c>
-      <c r="D232" t="n">
-        <v>855</v>
-      </c>
-      <c r="E232" t="n">
-        <v>854</v>
-      </c>
-      <c r="F232" t="n">
-        <v>500</v>
-      </c>
-      <c r="G232" t="n">
-        <v>841.45</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>848</v>
-      </c>
-      <c r="C233" t="n">
-        <v>848</v>
-      </c>
-      <c r="D233" t="n">
-        <v>848</v>
-      </c>
-      <c r="E233" t="n">
-        <v>848</v>
-      </c>
-      <c r="F233" t="n">
-        <v>60</v>
-      </c>
-      <c r="G233" t="n">
-        <v>841.2833333333333</v>
-      </c>
-      <c r="H233" t="n">
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
